--- a/kerdesek.xlsx
+++ b/kerdesek.xlsx
@@ -453,25 +453,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ubs feszültség növelésével a küszöbfeszültség értéke ... .</t>
+          <t>A CMOS képérzékelő eszközök működése a panelekben található fotodióda ... térrészében lezajló ... alapul.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>csökken</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>kiürített, generáción</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>tudom</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Az MFS megmutatja, hogy mekkora a legkisebb megvalósítható ...  mérete.</t>
+          <t>Inhomogén bázisadalákolású bipoláris tranzisztor esetén a kisebbségi töltéshordozó eloszlás a bázisban ... , mivel ... mellet, minden keresztmetszeten állandó áram folyik.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>alakzat</t>
+          <t>konstans, állandó térerősség</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -479,12 +483,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vegyértéksávban lévő elektronok nem képesek ... -ra.</t>
+          <t>Fém és félvezető anyag kontaktálásakor a félvezetőben ... következik be.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>elmozdulás</t>
+          <t>sávelhajlás</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -492,38 +496,46 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Diódára kapcsolt nyitóáramú előfeszítés esetén a p oldalon, az átmenet közelében ... halmozódnak fel.</t>
+          <t>Záróirányú előfeszítés esetén mindkét oldal ... -nak/-nek sodródása jellemző a másik oldal felé.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>elektronok</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>kisebbségi töltéshordozói</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>nem tudom</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Usb feszültség növelésével a küszöbfeszültség értéke ... .</t>
+          <t>CD értékének csökkentésével a subthreshold swing értéke ..........., így a küszöbalatti áram értéke ...............</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>növekszik</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>csökken, csökken</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>tudom</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A töltéshordozó koncentrációk szorzata nem függ az ... -tól/-től.</t>
+          <t>Az áramköri hordozók FR4 vagy FR5 alapanyaga ... erősítésű epoxi műgyanta laminátum.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>adalékolás</t>
+          <t>üvegszál</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -531,25 +543,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A kiürítéses MOS-FET eszközök ... eszközök és ... működésűek.</t>
+          <t>MOS-FET tranzisztorok esetén a Source-Bulk és a Drain-Bulk PN átmenetei ... vannak előfeszítve</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>unipoláris, normally-on</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>záró irányban</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nem tudom</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Az egy szeleten lévő chipek a gyártási folyamat során ... készülnek</t>
+          <t>Kiürülés során az elmozdulásra nem képes, helyhez kötött ... tartanak egyensúlyt a Gate elektróda ... .</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>együtt || egyszerre</t>
+          <t>adalékionok, töltésével</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -557,25 +573,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Donor adalékolású févezető esetén, a többségi töltéshordozó élettartama, az az átlagos idő, amit egy ... a ... -ban tölt.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>elektron, vezetési sávban</t>
-        </is>
+          <t>Térvezérlésű tranzisztorok vezérlőteljesítménye közel ... W.</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A JFET és a kiürítéses MOS-FET eszközök ... működésűek.</t>
+          <t>Az adiabatikus peremfeltétel azt jelenti, hogy ...
+ hőáram halad át a határfelületen.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>normally-on</t>
+          <t>nulla || konstans</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -583,12 +598,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CMOS képérzékelők esetén ... -t alkalmazunk képérzékelő eszközként.</t>
+          <t>Akceptor adalékolású félvezető esetén a többségi töltéshordozók a ... .</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>fotodióda</t>
+          <t>lyukak</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -596,12 +611,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Az adalékprofil megmutatja az ... -ét/-át a ... függvényében.</t>
+          <t>Az integrált áramkörök felületén gyakran különböző színű részeket lehet megkülönböztetni (főleg régebbi IC-k esetén, pl.: ua741). Ez a különböző vastagságú ... réteggel fedett területeken, a(z) interferencia jelenségnek köszönhető.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>adaléksűrűség, mélység</t>
+          <t>oxid</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -609,12 +624,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A More than Moore integráció esetén különböző technológián megvalósított eszközöket helyezünk el ... konstrukcióban.</t>
+          <t>Vegyértéksávban lévő elektronok nem képesek ... -ra.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SIP/System in Package</t>
+          <t>elmozdulás</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -622,13 +637,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intrinsic félvezetőben a Fermi-szint a ... található.</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>tiltott sáv közepén</t>
-        </is>
+          <t>AMS 1.35 um CMOS technológián - amin a laboratóriumi gyakorlatok során is dolgoztunk - kb. ... maszk kell a gyártáshoz.</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>22</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -639,12 +652,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Az inverziós csatornában található töltések száma az ... és az (Ugs-Vth) szorzataként számítható.</t>
+          <t>A bipoláris tranzisztor működés feltétele, hogy a ... réteg sokkal ... legyen, mint a kisebbségi töltéshordozók ... .</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>oxidkapacitás</t>
+          <t>középső, vékonyabb, diffúziós hosszúsága</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -656,12 +669,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Injektálási hatásfok értéke egyhez közeli és nagyban függ az emitter és a bázis ... arányától.</t>
+          <t>A diffúziós kapacitás káros, lassítja a dióda működését. ... dióda kialakítással és a kisebbségi töltéshordozó élettartam ... lehet csökkenteni.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>adalákolásának</t>
+          <t>Keskenybázisú, csökkentésével</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -673,12 +686,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A Fermi-potenciál megmutatja, hogy mekkora az a ... , amikor kialakul az ... .</t>
+          <t>A generációhoz szükséges energiát a vegyértéksáv elektronjai ... vagy ... - gerjesztéssel nyerik.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>felületi potenciál érték, inverzió határhelyzete</t>
+          <t>termikus, foton</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -690,12 +703,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A generációhoz szükséges energiát a vegyértéksáv elektronjai ... vagy ... - gerjesztéssel nyerik.</t>
+          <t>Dinamikus CMOS kapcsolástechnikával megvalósított logikai kapuk esetén két fázis követi egymást periodikusan: az ............ és a ...............</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>termikus, foton</t>
+          <t>előtöltés, kiértékelés</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -703,14 +716,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">CMOS gyártástechnológián .......................... kapcsolástechnikával lehet 
-megvalósítani logikai áramköri családokat.
-</t>
+          <t>FET eszközöket áramgenerátorok kialakítása esetén a(z) ... üzemmódban használunk, mert ekkor nagy a kimenő ... értéke.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CMOS, nMOS, pMOS és SCL</t>
+          <t>telítéses, impedancia</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -722,12 +733,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Az EET félvezető laborban ... technológia áll rendelkezésre.</t>
+          <t>PN átmenet esetén a záró irányú áram nagyságát a töltéshordozó ... sebessége határozza meg.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>p-MOS</t>
+          <t>generációs</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -739,12 +750,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Első ... -t Jeck Kilby alkotta meg 1959-ben.</t>
+          <t>JFET eszközöknek alacsonyabb a ... értéke, mint a bipoláris tranzisztoroknak.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>monolitikus IC</t>
+          <t>transzkonduktancia</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -756,12 +767,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A ... eszközökben jellemző az ún. stacked-die struktúra.</t>
+          <t>Analóg áramkörök tervezésekor a tranzisztorok geometriai......................... az MFS ................... kell választani.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIP</t>
+          <t>csatorna hosszúságát, többszörösére</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -773,12 +784,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nagy tápfeszültség alkalmazása esetén a CMOS inverter átkapcsolásakor fellép olyan állapot, amikor mind a két tranzisztor ... állapotban van.</t>
+          <t>PN átmenet esetén a kiürített rétegben a térerősség eloszlás függvénye ... jellegű, szemben a síkkondenzátor struktúrával, ahol ... jellegű.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>vezetési</t>
+          <t>lineáris, konstans</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -790,12 +801,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Az egymásba vezetés az a ... és a ... szorzatával arányos. </t>
+          <t>Kristályos szilícium napelemeket ... kialakításával, vagy ... struktúra kialakításával lehet fényáteresztővé tenni.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tápfeszültség köbének, működési frekvencia</t>
+          <t>lyukak, monograin</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -807,12 +818,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P adalékolású alaphordozón kialakított MOS kapacitás struktúra esetén .......................... kell alkalmazni a Flat-Band állapot eléréséhez.</t>
+          <t>Az ütközéses ionizáció jelenség a ... letörése jellemző.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>negativ feszültség</t>
+          <t>lavina</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -824,12 +835,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Inverz működés esetén az áramerősítési tényező alacsony értékéért az ... valamint a CB átmenettől ... távolabb található EB átmenet felelős.</t>
+          <t>A Sony által alkalmazott Exmor R technológia esetén ... helyezünk el közvetlenül a képérzékelő lapkán.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>inhomogén adalékolás, diffúziós hossznál</t>
+          <t>A/D átalakítókat</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -841,12 +852,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Többszörös leképezést a mikroelektronikai technológia ... lépésnél alkalmaznak és célja a ... növelése.</t>
+          <t>Az Uk komparálási feszültség értéke - CMOS inverter kapcsolás esetén - a tranzisztorok ... -nak/-nek arányától függ.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>fotolitográfia(i), felbontás</t>
+          <t>áramállandója</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -858,12 +869,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PN átmenet nyitóirányú előfeszítése esetén a p oldalra átjutott elektronokat - a p oldalon - a ... mozgatja a kontaktus felé.</t>
+          <t>FET eszközök lineáris (trióda) tartományban ... -ként viselkedik.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>diffúziós áram</t>
+          <t>feszültségvezérelt ellenállás</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -871,12 +882,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Az integrált áramkörök a specifikációban előírt funkciót végrehajtó része a ...</t>
+          <t>Dinamikus CMOS kapcsolástechnika fő előnye a statikus CMOS áramkörökhöz képest, hogy ... tranzisztorra van szükség, ... teljesítményfelvétel van és a p és n csatornás MOS tranzisztorok ... nem számítanak.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>core</t>
+          <t>kevesebb, csak dinamikus, geometriai arányai</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -884,12 +895,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SCL kapcsolástechnikval ___ kapcsolásokat tudunk realizálni CMOS gyártástechnológián</t>
+          <t>A FIms az ... .</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>nagysebességű</t>
+          <t>érintkezési potenciálkülönbség</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -897,12 +908,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A kiürítéses MOS-FET tranzisztor felfogható úgy, mint egy ... növekményes MOS-FET tranzisztor.</t>
+          <t>A diódára kapcsolt előfeszítés függvényében a ... magassága változik.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>eltolt küszöbfeszültségű</t>
+          <t>potenciállépcső</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -910,12 +921,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Egymásután sorba kötött két CMOS inverter kapcsolással lehetővé válik egy bemeneti jel szintjeinek és jelalakjának a ... .</t>
+          <t>A kiürítéses MOS-FET eszközök ... eszközök és ... működésűek.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>megváltoztatása</t>
+          <t>unipoláris, normally-on</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -923,12 +934,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CCD és CMOS képérzékelők egyaránt ... erősítő alapkapcsolást alkalmazunk.</t>
+          <t>Diódára kapcsolt nyitóáramú előfeszítés esetén a p oldalon, az átmenet közelében ... halmozódnak fel.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>földelt draines</t>
+          <t>elektronok</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -936,12 +947,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>JFET eszközök unipoláris eszközök, ami azt jelenti, hogy a ... vesznek részt a vezetésben.</t>
+          <t>P adalékolású alaphordozón kialakított MOS kapacitás struktúra esetén ... kell alkalmazni a Flat-Band állapot eléréséhez.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>többségi töltéshordozók</t>
+          <t>negatív Ugb feszültséget</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -949,12 +960,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A MOS-FET tranzisztorok gate dielektrikum kialakításánál, nagy tisztaságú, szennyező atomoktól mentes, ... alakítanak ki ... gyártástechnológiai eljárással.</t>
+          <t>A modellparamétereket ... -ból tudjuk meghatározni.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>vékony oxidot, száraz oxidáció</t>
+          <t>PDK / katalógus fájl</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -962,12 +973,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Inhomogén bázisadalékolású bipoláris tranzisztor esetén a kisebbségi töltéshordozókat főleg a ... fogja mozgatni a lezárt CB átmenet irányába.</t>
+          <t>A növekményes MOS-FET eszközök ... eszközök és ... működésűek.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>beépített térerősség/beépített potenciál</t>
+          <t>unipoláris, normaly-off</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -979,12 +990,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PN átmenet nyitóirányú előfeszítés esetén mindkét oldal ... injektálódnak a másik oldal felé.</t>
+          <t>JFET eszközöknél az U0 elzáródási feszültségérték a csatorna ... -tól és a csatorna ... -tól függ.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>többségi töltéshordozói</t>
+          <t>adalékolás, vastagság</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -996,12 +1007,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A bipoláris tranzisztorok háromelemes fizikai helyettesítőképei ... , ... modellek, amik az ... okozta parazita hatást is figyelembe veszik.</t>
+          <t>A jelterjedési idő helyett CMOS inverterek jellemzésére a .................. használjuk.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>kisjelű, lineáris, rbb' soros ellenállás</t>
+          <t>késleltetést</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1009,12 +1020,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Inhomogén bázisadalékolású bipoláris tranzisztor esetén a fő cél a ... csökkentése.</t>
+          <t>Salicide technológia az ................ és szilicid alapú kialakítást jelenti</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>diffúziós kapacitás</t>
+          <t>önillesztés</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1022,12 +1033,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Analóg áramkörök tervezésekor a tranzisztorok geometriai......................... az MFS ................... kell választani.</t>
+          <t>Záróirányú előfeszítés hatására a PN átmeneten ... a potenciálgát magassága, ... a térerősség a töltésrétegben, így a ... kerül túlsúlyba.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>csatorna hosszúságát, többszörösére</t>
+          <t>növekszik, növekszik, sodródási áram</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1035,12 +1046,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Kényszerített nyitóirányú áram mellett a PN átmenet nyitófeszültsége nagyon jó ... .</t>
+          <t>Az átszúrás jelenség kiküszöbölésére a ............. implantációt alkalmaznak.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>hőmérséklet mérő</t>
+          <t>HALO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1048,25 +1059,29 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A növekményes MOS-FET eszközök ... eszközök és ... működésűek.</t>
+          <t xml:space="preserve">Az egymásba vezetés az a ... és a ... szorzatával arányos. </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>unipoláris, normally-off</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>tápfeszültség köbének, működési frekvencia</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>nem tudom</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Az indirekt sávú félvezetők esetén a fényelnyelés ... -t okozhat.</t>
+          <t>Egy LED energiakonverziós hatásfoka egyenlő a LED által ................ és a betáplált ................... hányadosával</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>generáció</t>
+          <t>optikai teljesítmény, villamos teljesítmény</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1074,12 +1089,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Adalékolt szilícium félvezetőben a töltéshordozó sűrűség közvetlen összefüggésben van a ... és a ... távolságával.</t>
+          <t>A JFET tranzisztor karakterisztika egyenlete ... összefüggést mutat.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fermi-szint, intrinsic Fermi-szint</t>
+          <t>négyzetes</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1087,12 +1102,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A hőmérséklet növelésével a MOS tranzisztor küszöbfeszültsége ... .</t>
+          <t>Metallurgiai átmenetnél a donor és akceptor adalékkoncentráció ... .</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>csökken</t>
+          <t>kiegyenlítődik/megegyezik</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1100,12 +1115,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Kiürülés során az elmozdulásra nem képes, helyhez kötött ... tartanak egyensúlyt a Gate elektróda ... .</t>
+          <t>Qsc a ... található töltések mennyisége.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>adalékionok, töltésével</t>
+          <t>kiürített rétegben</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1113,12 +1128,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CMOS félvezető technológián, CMOS áramköri kapcsolástechnikával megvalósított ring oszcillátor kapcsolás parazita kapacitásainak (pl.: következő fokozatok bemenő kapacitásai, inverter kapcsolást alkotó tranzisztorok kapacitásai, stb.) csökkenésével, az oszcilláció frekvenciája ... .</t>
+          <t>A PN átmenet ... az adalékolás növelésével, ... a letöréshez tartozó UL feszültség érték.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>nő</t>
+          <t>gyengébben adalékolt oldalának, csökken</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1126,12 +1141,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A Sony által alkalmazott Exmor R technológia esetén ... helyezünk el közvetlenül a képérzékelő lapkán.</t>
+          <t>PN átmenetnél a kiürített réteg szélessége a záróirányú feszültség növelésével ... .</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A/D átalakítókat</t>
+          <t>nő</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1139,12 +1154,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A félvezető chip felületén különböző vastagságú területek eltérő színét az ... jelenség okozza.</t>
+          <t>Chiplet alapú 3D heterogén integráció során a cél a ... növelése a különböző technológiával megvalósított eszközök szoros integrációja.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>interferencia</t>
+          <t>yield</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1152,12 +1167,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Az epitaxiális rétegnövesztés két legnagyobb előnye, hogy</t>
+          <t>Vezetési sáv elektronsűrűségét a generáció és a rekombináció ... -a határozza meg.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Különböző adalékolású is lehet, rácsszerkezete megmarad</t>
+          <t>dinamikus egyensúly</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1165,12 +1180,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A szeleteket számos technológiai lépésnél (pl.: diffúzió, oxidáció) csoportosan kezelik, az így kialakított csoport szakterminológiai elnevezése ... .</t>
+          <t>A félvezető felületén látható elszíneződést a ... -ról/ről és az ... -ról/ről visszaverődő fényhullám interferenciája okozza. (ábrán alulról felfelé megnevezni)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Batch/parti</t>
+          <t>Si, SiO2 | Szilícium, Szilíciumdioxid</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1178,12 +1193,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Dennard törvénye az ................ alapelveit fekteti le.</t>
+          <t>A növekményes MOS-FET tranzisztorok karakterisztika egyenlete ... összefüggést mutat.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>arányos méretcsökkenés</t>
+          <t>négyzetes</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1191,12 +1206,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A rekombinációs áram a PN átmenet ... működésekor fellépő ... jellemző jelenség.</t>
+          <t>A megfelelő ... kérdése egyre fontosabbá válik a 3D rendszer konstrukciók esetén, növekvő disszipáció sűrűség mellett.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>nyitó irányú, tipikusan kis áramoknál</t>
+          <t>hűtés</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1204,12 +1219,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Egy egyszerű földelt source-ú erősítő alapkapcsolás erősítésének meghatározására ... szimulációt érdemes futtatni.</t>
+          <t>A fill factor megmutatja, hogy a pixelfelület hány százaléka ... felület.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>hatásos</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1217,23 +1232,25 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Modern félvezető technológiák esetén a termék előállítása során a FEOL technológiai lépések száma akár ... is lehet.</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>150</v>
+          <t>Inhomogén bázisadalékolású bipoláris tranzisztor esetén a fő cél a ... csökkentése.</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>diffúziós kapacitás</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A mikroelektronika fejlődési trendjeit, jóslatait tartalmazó összefoglalót ... -nek nevezzük.</t>
+          <t>A félvezető gyártástechnológia fotolitográfia műveletét egy speciális térben az ún. ... -ben végzik.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>roadmap</t>
+          <t>tisztatér</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1241,12 +1258,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>... gyártástechnológiai eljárással vastagabb, de szennyezéseket tartalmazó oxidréteg hozható létre, főleg elektromos szigetels és maszkolás céljából.</t>
+          <t>Első germánium alapú ... Bardeen, Schockley és Brattain alkotta meg 1947-ben.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nedves oxidáció</t>
+          <t>bipoláris tranzisztort</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1254,12 +1271,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Heterogén integráció során több, különböző technológián, akár különböző félvezető alapanyagból gyártott chipeket, ún.</t>
+          <t>PN átmenet esetén a generáció a ... -ban/-ben jelentősebb, mint a normál p, vagy n adalékolású rétegben!</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Chiplet, vezető (?) (félvezetővel 0.9 pont) szilícium!</t>
+          <t>kiürített réteg</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1267,12 +1284,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A diffúziós hossz a ... és a kisebbségi töltéshordozók ... függ.</t>
+          <t>A More than Moore integráció esetén különböző technológián megvalósított eszközöket helyezünk el ... konstrukcióban.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>diffúziós állandótól, élettartamától</t>
+          <t>SIP/System in Package</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1280,12 +1297,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Kristályos szilícium napelemeket ... kialakításával, vagy ... struktúra kialakításával lehet fényáteresztővé tenni.</t>
+          <t>Nagy tápfeszültség alkalmazása esetén a CMOS inverter átkapcsolásakor fellép olyan állapot, amikor mind a két tranzisztor ..............állapotban van.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>lyukak, monograin</t>
+          <t>vezetési</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1293,12 +1310,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Az első híres személyi számítógépekben elérhető processzorok (pl.: 4004, 8080) ... technológián készült.</t>
+          <t>Jelenleg a modern gyártástechnológiában alkalmazott szelet átmérő ... .</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NMOS</t>
+          <t>30 cm</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1306,12 +1323,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Chiplet alapú 3D heterogén integráció során a cél a ... növelése a különböző technológiával megvalósított eszközök szoros integrációja.</t>
+          <t>Modern gyártástechnológiák jellemző MFS értéke.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>yield</t>
+          <t>7nm</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1319,12 +1336,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Qss értékének növelésével (pl.: ionimplantációval) ... a Vth küszöbfeszültség értéke.</t>
+          <t>Az integrált áramkörök a specifikációban előírt funkciót végrehajtó része a ...</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>csökken</t>
+          <t>core</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1332,12 +1349,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Modern MOS-FET struktúrákban a gate dielektrikum ............................., ................ tartalmú anyag.</t>
+          <t>A ............. gate technológia esetén a poly-szilícium gate elektródát pl Ni anyaggak ad.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>magas dielektromos állandójú,hafnium</t>
+          <t>szilicid</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -1345,12 +1362,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Kémiai kötések kialakításában a ... elektronjai vesznek részt.</t>
+          <t>Az első ... szabadalmát Lillienfield nyújtotta be 1925-ben.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>vegyértéksáv</t>
+          <t>FET</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1358,12 +1375,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A PN átmenet tértöltési kapacitása a ... -ban/-ben domináns.</t>
+          <t>PN átmenet esetén a generációs áram tipikusan ... előfeszítés esetén jellemző.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>záró tartomány</t>
+          <t>záró</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -1371,34 +1388,38 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Félvezető eszközök gyártása során akár ... darab maszkra is szükség lehet.</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>70</v>
+          <t>Az egységnyi felületre számított gate kapacitás növekedésével a küszöbfeszültség értéke ... .</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>csökken</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>AMS 1.35 um CMOS technológián - amin a laboratóriumi gyakorlatok során is dolgoztunk - kb. ... maszk kell a gyártáshoz.</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>22</v>
+          <t>Az epitaxiális rétegnövesztés két legnagyobb előnye, hogy</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Különböző adalékolású is lehet, rácsszerkezete megmarad</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Az integrált áramkör gyártásához szükséges maszkok tervrajzát ... -nak nevezzük.</t>
+          <t>A félvezető gyártósorokon kialakított tiszta térben ... áramló ... áramlási jellegű légáram kerül kialakításra.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>layout</t>
+          <t>fentről-lefelé, lamináris</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1406,23 +1427,25 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Egy modern rendszerchipeszköz maximális disszipáció sűrűssége kb. ... W/cm^2 nagyságú.</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>130</v>
+          <t>A Fermi-Dirac statisztikában az elektronokat ... .</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>nem lehet megkülönböztetni</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A PN átmenet ... az adalékolás növelésével, ... a letöréshez tartozó UL feszültség érték.</t>
+          <t>A növekményes MOS-FET eszközök ... eszközök és ... működésűek.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>gyengébben adalékolt oldalának, csökken</t>
+          <t>unipoláris, normally-off</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -1430,12 +1453,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Az Ebers-Moll egyenletek ... reprezentáló modell, amely ... helyesen írja le a bipoláris tranzisztor működését.</t>
+          <t>Az Elektronikus Eszközök Tanszéke félvezető laboratóriumában ... technológia áll rendelkezésre.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>nagyjelű nemlineáris működést, minden üzemmódban</t>
+          <t>p-MOS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -1443,12 +1466,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>JFET eszközök transzkonduktancia értéke ... változik az Ugs feszültség függvényében.</t>
+          <t>PN átmenet esetén ... hatására az potenciálgát magassága ... értékkel csökken, így az n oldal ... nagyobb része tud átlépni a p oldalra.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>négyzetgyökösen</t>
+          <t>nyitófeszültség, q*U, elektronjainak</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -1456,25 +1479,29 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PN átmenet esetén a kiürített réteg mindig a ... adalékolt oldalon szélesebb.</t>
+          <t>Inverz működés esetén az áramerősítési tényező alacsony értékéért az ... valamint a CB átmenettől ... távolabb található EB átmenet felelős.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>gyengébben</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>inhomogén adalékolás, diffúziós hossznál</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>nem tudom</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Inhomogén bázisadalákolású bipoláris tranzisztor esetén a kisebbségi töltéshordozó eloszlás a bázisban ... , mivel ... mellet, minden keresztmetszeten állandó áram folyik.</t>
+          <t>A diffúziós hossz a ... és a kisebbségi töltéshordozók ... függ.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>konstans, állandó térerősség</t>
+          <t>diffúziós állandótól, élettartamától</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -1482,12 +1509,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MOS-FET tranzisztorok esetén a csatorna elzáródás bekövetkezte után, az elzáródott tartományban a töltéstranszport ... révén valósul meg.</t>
+          <t>CMOS félvezető technológián, CMOS áramköri kapcsolástechnikával megvalósított ring oszcillátor kapcsolás parazita kapacitásainak (pl.: következő fokozatok bemenő kapacitásai, inverter kapcsolást alkotó tranzisztorok kapacitásai, stb.) csökkenésével, az oszcilláció frekvenciája ... .</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>drift áram</t>
+          <t>nő</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -1495,12 +1522,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Az ütközéses ionizáció jelenség a ... letörése jellemző.</t>
+          <t>Heterogén integráció során több, különböző technológián, akár különböző félvezető anyagból gyártott chipeket, ún. ... helyeznek el egy aktív vagy passzív ... anyagú köztes hordozón.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>lavina</t>
+          <t>chiplet, szilícium</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -1508,12 +1535,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A LED eszközök működése a ... jelenségen alapul.</t>
+          <t>Modern MOS-FET struktúrákban a gate dielektrikum ............................., ................ tartalmú anyag.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>rekombináció</t>
+          <t>magas dielektromos állandójú,hafnium</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -1521,12 +1548,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A hőátadási tényező mértékegysége:</t>
+          <t>Donor adalékolású févezető esetén, a többségi töltéshordozó élettartama, az az átlagos idő, amit egy ... a ... -ban tölt.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>W/(m*K)</t>
+          <t>elektron, vezetési sávban</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -1534,12 +1561,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Deep-UV fotolitográfia esetén a fotómaszkokat ... hordozón alakítják ki ... mintázattal.</t>
+          <t>Kémai kötések kialakításában a ... elektronjai vesznek részt. A kiürített térrészben történő generáció során keletkeznek.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>üveg, króm</t>
+          <t>vegyértéksáv</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -1547,12 +1574,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A kollektorköri ellenállás csökkentése céljából az integrált áramköri bipoláris tranzisztor struktúrák esetén ... kialakítását alkalmazzák.</t>
+          <t>Abrupt átmenet előállítására ... technológiai lépés alkalmazásával van lehetőség.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>eltemetett réteg</t>
+          <t>epitaxiális réteg növesztés</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -1560,12 +1587,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>JFET eszközöknél a maximális Id áramot (Ugs = 0 mellett) ... jelöljük és ... nevezzük.</t>
+          <t>Az indirekt sávú félvezetők esetén a fényelnyelés ... -t okozhat.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>I0, áramállandó</t>
+          <t>generáció</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -1573,12 +1600,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>eszközök, gyártástechnológia</t>
+          <t>A modellegyenletek a ... vannak beépítve.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Vdd/táp</t>
+          <t>szimulációs program kódjába</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -1586,12 +1613,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Átszúrás esetén a Gate alatt a Source-Bulk és Drain-Bulk átmenetek ...................... összeérnek, így közvetlen áramutat teremtve a Source és Drain között, ami a továbbiakban a ....................... feszültséggel nem befolyásolható.</t>
+          <t>A rövid hullámhosszúságú fénysugárzás ... , a(z) ... abszorbeálódik.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>kiürített rétegei,gate source</t>
+          <t>nagy energiájú, szelet felületének közelében</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -1599,12 +1626,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PN átmenet esetén a beépített potenciál értéke a két oldal ... függvénye.</t>
+          <t>ISOCELL technológiával a képérzékelő pixelek közötti ... csökkentjük.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>adalékolásának</t>
+          <t>áthallást</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -1612,12 +1639,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Akceptor adalékolású félvezető esetén a többségi töltéshordozók a ... .</t>
+          <t>A többátmenetes napelem struktúrákban a megvilágított oldal felől a napelem struktúra belseje felé haladva egyre ... anyagokat alkalmazunk.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>lyukak</t>
+          <t>csökkenő tiltott sáv szélességű</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -1625,12 +1652,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A megfelelő ... kérdése egyre fontosabbá válik a 3D rendszer konstrukciók esetén, növekvő disszipáció sűrűség mellett.</t>
+          <t>Nagy tápfeszültség alkalmazása esetén a CMOS inverter átkapcsolásakor fellép olyan állapot, amikor mind a két tranzisztor ... állapotban van.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>hűtés</t>
+          <t>vezetési</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -1638,12 +1665,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A vegyérték és vezetési sáv között a ... található.</t>
+          <t>A tisztatérben viselendő bunny suite (másnéven overál, cover-all) ...</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>tiltott sáv</t>
+          <t>- fémháló szövi át, érintés védelem miatt. , - műszálas anyagból készül.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -1651,12 +1678,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Többátmenetes napelem struktúrák esetén különböző ... alkalmazunk, hogy a spektrum minél ... tartományában történhessen foton-gerjesztés.</t>
+          <t>Az MFS megmutatja, hogy mekkora a legkisebb megvalósítható ...  mérete.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>tiltott-sávszélességű anyagokat, szélesebb</t>
+          <t>alakzat</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -1664,12 +1691,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A szilícium szobahőmérsékleten ... hővezető képességű mint a réz.</t>
+          <t>Modern fotolitográfiában a 193 nm alatti felbontás ... alkalmazásával érhető el.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>sokkal rosszabb</t>
+          <t>argon fluorid lézer (ArF)/LELE/SADP/SAQP/immerziós litográfia/fázistoló maszkok (PSM)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -1677,12 +1704,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Passzív terhelésű nMOS inverter kapcsolás fő előnye, hogy ............. megvalósítható.</t>
+          <t>JFET eszközöknél (a MOS-FET eszközöktől eltérően) nem jellemző a ... zaj.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>kevés tranzisztorral</t>
+          <t>villódzási</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -1690,12 +1717,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Dinamikus CMOS kapcsolástechnikával megvalósított logikai kapuk esetén két fázis követi egymást periodikusan: az ............ és a ...............</t>
+          <t>Kémiai kötések kialakításában a ... elektronjai vesznek részt.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>előtöltés, kiértékelés</t>
+          <t>vegyértéksáv</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -1703,12 +1730,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Egy CMOS technológián, CMOS kapcsolástechnikával megvalósított logikai kapu p-csatornás MOS tranzisztorainak bulk-ját a ... -ra/-re kell kapcsolni.</t>
+          <t>A töltéshordozó koncentrációk szorzata nem függ az ... -tól/-től.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>táp/vdd</t>
+          <t>adalékolás</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -1716,12 +1743,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Inhomogén bázisadalékolású bipoláris tranzisztor esetén a kisebbségi töltéshordozó eloszlás a bázisban .............., mivel ............... mellett, minden keresztmetszeten állandó áram folyik.</t>
+          <t>Direkt rekombináció ... járhat.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>konstans, állandó térerősség</t>
+          <t>fény kibocsátással</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -1729,12 +1756,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Fésűs mikrostruktúra előnye a síkkondenzátor kialakításához képest, hogy a felületegységre vetített kapacitás értéke ...................</t>
+          <t>Ubs feszültség növelésével a küszöbfeszültség értéke ... .</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>nagyobb</t>
+          <t>csökken</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -1742,12 +1769,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Direkt sávú félvezetőben a sávszerkezetén a vegyértéksáv teteje és a vezetési sáv alja ... értéknél található.</t>
+          <t>Az elektrosztatika Gauss törvénye kapcsolatot teremt a ... és a ... között.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>azonos impulzus</t>
+          <t>töltéssűrűsség, térerősség</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -1755,25 +1782,23 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A Schokley-Read-Hall rekombináció esetén a vegyértéksáv és a vezetési sáv között "áthaladó" elektron a ... található lokalizált állapotokkal (ezek az ún. ... ) kerül kölcsönhatásba.</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>tiltott sávban, mély-nívók(kal)</t>
-        </is>
+          <t>Egy modern rendszerchipeszköz maximális disszipáció sűrűssége kb. ... W/cm^2 nagyságú.</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>130</v>
       </c>
       <c r="C98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A JFET karakterisztika egyenlete ... összefüggést mutat.</t>
+          <t>A CDO-ban kialakított pórusos struktúra legnagyobb előnye, hogy .............................</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>négyzetes</t>
+          <t>csökkenteni lehet a késleltetést</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -1781,12 +1806,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PN átmenet esetén ... hatására az potenciálgát magassága ... értékkel csökken, így az n oldal ... nagyobb része tud átlépni a p oldalra.</t>
+          <t>A metallurgiai átmenetnél a félvezető anyag úgy viselkedik, mintha ... lenne.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>nyitófeszültség, q*U, elektronjainak</t>
+          <t>intrinsic/adalékolatlan</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -1794,12 +1819,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Homogén bázisadalékolású bipoláris tranzisztor esetén a kisebbségi töltéshordozó eloszlás ... , mivel a ... minden pontban állandó kell, hogy legyen.</t>
+          <t>Átszúrás esetén a Gate alatt a Source-Bulk és Drain-Bulk átmenetek ...................... összeérnek, így közvetlen áramutat teremtve a Source és Drain között, ami a továbbiakban a ....................... feszültséggel nem befolyásolható.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>lineáris, gradiens</t>
+          <t>kiürített rétegei,gate source</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -1807,12 +1832,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MOS-FET eszközök esetén a fém gate-s struktúrát a ... gate anyagú struktúra váltotta fel, mert így a gyártás során megvalósulhat az ... és kisebb lehet a ... .</t>
+          <t>A ... egyenlet(ek)nek központi szerepük van a félvezető eszközök elméletében.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>poli-Si, önillesztés, küszöbfeszültség</t>
+          <t>folytonossági</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -1820,12 +1845,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A modellegyenletek a ... vannak beépítve.</t>
+          <t>FD-SOI esetén teljesen ... a gate alatti ... nanométer vastagságú ... .</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>szimulációs program kódjába</t>
+          <t>kiürített, 5-20, szilícium/Si</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -1833,12 +1858,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A fő disszipáló elemet lehetőleg az integrált áramkör, vagy az áramköri hordozó ... kell elhelyezni, ha feltételezzük, hogy az alsó felület a hűtött oldal.</t>
+          <t>Usb feszültség növelésével a küszöbfeszültség értéke ... .</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>közepén</t>
+          <t>növekszik</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -1846,12 +1871,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A MOS kapacitás struktúra esetén megismert felületi jelenségek: ... , ... , ... .</t>
+          <t>JFET eszközök működése során feltétlen el kell kerülni a ... "működési tartományt".</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>akkumuláció, kiürítés, inverzió</t>
+          <t>letörési</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -1859,12 +1884,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A diódára kapcsolt előfeszítés függvényében a ... magassága változik.</t>
+          <t>A töltés-pumpálás fogyasztás összetevő értéke a ... és ... szorzatával arányos.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>potenciállépcső</t>
+          <t>tápfeszültség négyzetével, működési frekvencia</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -1872,12 +1897,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Az egyelőre megoldatlan, a további fejlődést gátló problémákat a roadmap-ekben egységesen ... -nak nevezzük.</t>
+          <t>A kiürített térrészben történő generáció során ... keletkeznek.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>the red brick wall</t>
+          <t>töltéshordozó párok</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -1885,12 +1910,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Nagy térerősség esetén a sodródási sebesség (drift velocity) megközelíti a hőmozgés sebességét, így a további térerősség növelésével a sodródási áram ... .</t>
+          <t>Frank Wanlass 1963-ban alkotta meg az első ... logikai kapcsolást.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>növekedése lelassul</t>
+          <t>CMOS</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -1898,12 +1923,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Többségi töltéshordozó sűrűség ... a hőmérséklettől.</t>
+          <t>Az órajelfrekvencia folyamatos növelése helyett, a számítási teljesítmény további növelését a ... biztosítja.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>független</t>
+          <t>párhuzamosítás</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -1911,12 +1936,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>PN átmenetnél a letörési feszültség a gyengébben adalékolt oldal ... -tól/-től függ.</t>
+          <t>Félvezető anyagra adott pozitív feszültség hatására a sávábrán, a megengedett energia szintek/sávok ... , azaz a sáv ... .</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>adalékolás</t>
+          <t>potenciális energiája csökken, lefelé hajlik</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -1924,12 +1949,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Qss a félvezető és az oxid határfelületén található ... megülő töltések.</t>
+          <t>Félvezető eszközök gyártása során több tucat maszkot alkalmaznak. Az egyik legnagyobb problémát a(z) ... jelenti.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>elkötetlen vegyérték állapotokon</t>
+          <t>maszkillesztés</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -1937,12 +1962,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Vezetési sáv elektronsűrűségét a generáció és a rekombináció ... -a határozza meg.</t>
+          <t>A félvezető szeleteket ... -val/vel darabolják fel.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>dinamikus egyensúly</t>
+          <t>gyémánttárcsás vágóeszköz</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -1950,12 +1975,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A legnagyobb félvezető gyártócégek havonta nagyságrendileg több millió ... -t munkálnak meg.</t>
+          <t>Fém-fém kontaktus esetén a kontaktpotenciált a különböző anyagú fémek eltérő ... -je/-ja okozza.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>szelet</t>
+          <t>kilépési munka</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -1963,23 +1988,25 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Inhomogén bázisadalékolású bipoláris tranzisztoroknál a beépített tér nagysága körülbelül ... mV nagyságrendű.</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>120</v>
+          <t>A szeleteket számos technológiai lépésnél (pl.: diffúzió, oxidáció) csoportosan kezelik, az így kialakított csoport szakterminológiai elnevezése ... .</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Batch/parti</t>
+        </is>
       </c>
       <c r="C114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Az inverziós tartományban a bipoláris tranzisztor áramerősítési tényezője maximum ... értéket érheti el.</t>
+          <t>Qss értékének növelésével (pl.: ionimplantációval) ... a Vth küszöbfeszültség értéke.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>csökken</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -1987,12 +2014,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A CDO-ban kialakított pórusos struktúra legnagyobb előnye, hogy .............................</t>
+          <t>Homogén bázisadalékolású tranzisztorok esetén a (kisebbségi) töltéshordozókat a ... mozgatja az EB és BC átmenet között.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>csökkenteni lehet a késleltetést</t>
+          <t>diffúziós áram</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -2000,12 +2027,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Az átszúrás jelenség kiküszöbölésére a ............. implantációt alkalmaznak.</t>
+          <t>Az egy szeleten lévő chipek a gyártási folyamat során ... készülnek</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>HALO</t>
+          <t>együtt || egyszerre</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -2013,12 +2040,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A hőmérséklet növekedésével a MOS tranzisztor küszöbfeszültsége ...</t>
+          <t>A spektrális válaszfüggvény megmutatja a ... és az adott hullámhosszúságú fény teljesítményének hányadosát egységnyi felületen.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>csökken</t>
+          <t>generált fotoáram</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -2026,12 +2053,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>P adalékolású alaphordozón kialakított MOS kapacitás struktúra esetén ... kell alkalmazni a Flat-Band állapot eléréséhez.</t>
+          <t>A fotolitográfia során a helyiség megvilágítása ... színű fénnyel történik, mert a fotolakk/fotoreziszt érzékeny az ... fényre.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>negatív Ugb feszültséget</t>
+          <t>sárga, UV</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -2039,12 +2066,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Heterogén integráció során több, különböző technológián, akár különböző félvezető anyagból gyártott chipeket, ún. ... helyeznek el egy aktív vagy passzív ... anyagú köztes hordozón.</t>
+          <t>Nyitóirányú előfeszítés hatására a PN átmeneten ... a potenciálgát magassága, ... a térerősség a tértöltésrétegben, így a ... kerül túlsúlyba.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>chiplet, szilícium</t>
+          <t>csökken, csökken, diffúziós áram</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -2052,12 +2079,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MOS-FET tranzisztorok esetén a Source-Bulk és a Drain-Bulk PN átmenetei ... vannak előfeszítve</t>
+          <t>A projektorokban található DMD mikrorendszer rövidítés a .............. jelenti.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>záró irányban</t>
+          <t>Digitális mikrotükör eszköz</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -2065,12 +2092,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A  tisztatérben található kályhákkal ún. magas hőmérsékletű folyamatokat is végzünk. Ilyen folyamatok a ... . (2 technológiai folyamat)</t>
+          <t>Parabolikus sávközelítás esetén a töltéshordozók ... számolunk.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>rétegnövesztés/oxidnövesztés, diffúzió</t>
+          <t>effektív tömegével</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -2078,25 +2105,29 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Dinamikus CMOS kapcsolástechnika fő előnye a statikus CMOS áramkörökhöz képest, hogy ... tranzisztorra van szükség, ... teljesítményfelvétel van és a p és n csatornás MOS tranzisztorok ... nem számítanak.</t>
+          <t>Első ... -t Jeck Kilby alkotta meg 1959-ben.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>kevesebb, csak dinamikus, geometriai arányai</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr"/>
+          <t>monolitikus IC</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>nem tudom</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A tiszta levegő áramlása minden esetben ... történik, a külvilág és a különböző tisztaságú térrészek között kis mértékű túlnyomás uralkodik.</t>
+          <t>SOI technológia esetén Cd csökkentése érdekében egy ... kötünk vele sorba.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>fentről lefelé</t>
+          <t>nagyobb értékű kapacitást</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -2104,12 +2135,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Záróirányú előfeszítés esetén a PN átmenet ... viselkedik a kisebbségi töltéshordozókra.</t>
+          <t>JFET eszközök esetén a ... működési tartományban az Id áram nem változik az ... feszültség változásával.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>nyelőként</t>
+          <t>telítéses, Uds</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -2117,12 +2148,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Az azonos áramköri kapcsolástechnikával megalkotott logikai kapuáramkörök alkotnak egy-egy ... -ot.</t>
+          <t>A metallurgiai átmenetnél a félvezető anyag úgy viselkedik, mintha ... lenne.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>logikai áramköri család</t>
+          <t>intrinsic/adalékolatlan</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -2130,12 +2161,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A kiürített térrészben történő generáció során ... keletkeznek.</t>
+          <t>PN átmenetnél a letörési feszültség a gyengébben adalékolt oldal ... -tól/-től függ.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>töltéshordozó párok</t>
+          <t>adalékolás</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -2143,12 +2174,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Az órajelfrekvencia folyamatos növelése helyett, a számítási teljesítmény további növelését a ... biztosítja.</t>
+          <t>Növekvő hőmérséklet esetén, a (hőmérsékletfüggő) küszöbfeszültség (VTH) változásának hatására a CMOS inverter késleltetése ... .</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>párhuzamosítás</t>
+          <t>csökken</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -2156,12 +2187,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Nyitóirányú előfeszítés hatására a PN átmeneten ... a potenciálgát magassága, ... a térerősség a tértöltésrétegben, így a ... kerül túlsúlyba.</t>
+          <t>Követő (puffer) erősítőket tipikusan ... alapkapcsolással szokták megvalósítani.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>csökken, csökken, diffúziós áram</t>
+          <t>közös drain</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -2169,12 +2200,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Fém és n adalékolású félvezető kontaktálása esetén a félvezetőben ... lép fel, a félvezető Fermi-szintje ... , a fémben ... alakul ki.</t>
+          <t>A legnagyobb félvezető gyártócégek havonta nagyságrendileg több millió ... -t munkálnak meg.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>elektron hiány, lesüllyed, negatív potenciál</t>
+          <t>szelet</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -2182,13 +2213,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Az adiabatikus peremfeltétel azt jelenti, hogy ...
- hőáram halad át a határfelületen.</t>
+          <t>A diffúziós hossz megmutatja, hogy milyen ... -ig hatolnak be a ...  töltéshordozók, mielőtt rekombinálódnak.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>nulla || konstans</t>
+          <t>átlagos mélységig, kisebbségi</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -2196,12 +2226,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Salicide technológia az ................ és szilicid alapú kialakítást jelenti</t>
+          <t>PN átmenet esetén a kiürített rétegben a potenciálfüggvény ... jellegű, szemben a sikkondenzátorral, ahol ... jellegű.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>önillesztés</t>
+          <t>négyzetes, lineáris</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -2209,12 +2239,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Usb feszültség növelésével Vth küszöbfeszültség értéke ... .</t>
+          <t>A ... eszközökben az ún. köztes hordozó (interposer) is az áramkör szerves részét képezi</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>növekszik</t>
+          <t>SOP</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -2222,12 +2252,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A ... értéke megmutatja, hogy mekkora energia értékkel hajlik el a sáv a félvezetőben. (MOS struktúrák esetén)</t>
+          <t>Indirekt rekombináció nem radiatív, de mindig ... jár.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>felületi potenciál</t>
+          <t>hődisszipációval</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -2235,12 +2265,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Követő (puffer) erősítőket tipikusan ... alapkapcsolással szokták megvalósítani.</t>
+          <t>A 45 nm alatti csíkszélességű technológiákon a MOS-FET tranzisztorok fém gate elektródája a ___ beállításáért felelős rétegstruktúrából és alacsony ___ fém rétegből épül fel.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>közös drain</t>
+          <t>kilépési, munka ellenállású</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -2248,12 +2278,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SOI technológia esetén Cd csökkentése érdekében egy ... kötünk vele sorba.</t>
+          <t>A rekombinációs áram a PN átmenet ... működésekor fellépő ... jellemző jelenség.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>nagyobb értékű kapacitást</t>
+          <t>nyitó irányú, tipikusan kis áramoknál</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -2261,12 +2291,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Nagy tápfeszültség alkalmazása esetén a CMOS inverter átkapcsolásakor fellép olyan állapot, amikor mind a két tranzisztor ... állapotban van.</t>
+          <t>Egyes jóslatok szerint a 7 nm csíkszélességben a sötét szilícium (dark silicone) területe meghaladhatja akár a(s) ... %-ot.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>vezetési</t>
+          <t>50-80</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -2274,12 +2304,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A sávdiagrammon a vegyérték és a vezetési sáv között a ... található.</t>
+          <t>PN átmenet esetén a diffúziós árammal szemben fellépő sodródási áram kialakulásához szükséges térerősséget ... hozza létre.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>tiltott sáv</t>
+          <t>tértöltés réteg</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -2287,12 +2317,13 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A töltéshordozók mozgékonyságát a(z) ... akadályozzák.</t>
+          <t>Az azonos áramköri kapcsolástechnikával megalkotott logikai kapuáramkörök 
+alkotnak egy-egy ..................... -ot.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>szóródások</t>
+          <t>logikai áramköri család</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -2300,12 +2331,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A PN átmenet sávábrájáról leolvasható, hogy a p oldalon levő sávok energiaszintje ... , a n oldalon lévő sávok energiaszintje ... .</t>
+          <t>A töltéshordozók mozgékonyságát a(z) ... akadályozzák.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>megemelkedik, lesüllyed</t>
+          <t>szóródások</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -2313,12 +2344,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PN átmenet esetén a záró irányú áram nagyságát a töltéshordozó ... sebessége határozza meg.</t>
+          <t>A PN átmenet sávábrájáról leolvasható, hogy a p oldalon levő sávok energiaszintje ... , a n oldalon lévő sávok energiaszintje ... .</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>generációs</t>
+          <t>megemelkedik, lesüllyed</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -2326,12 +2357,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A növekményes MOS-FET tranzisztorok karakterisztika egyenlete ... összefüggést mutat.</t>
+          <t>A fő disszipáló elemet lehetőleg az integrált áramkör, vagy az áramköri hordozó ... kell elhelyezni, ha feltételezzük, hogy az alsó felület a hűtött oldal.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>négyzetes</t>
+          <t>közepén</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -2339,12 +2370,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A metallurgiai átmenetnél a félvezető anyag úgy viselkedik, mintha ... lenne.</t>
+          <t>CCD képérzékelők esetén ... alkalmazunk képérzékelő eszközként.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>intrinsic/adalékolatlan</t>
+          <t>MOS kapacitást</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -2352,12 +2383,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A megfelelő ... kérdése egyre fontosabbá válik a 3D rendszer konstrukciók esetén, növekvő disszipáció sűrűség mellett.</t>
+          <t>A bipoláris tranzisztorok háromelemes fizikai helyettesítőképei ... , ... modellek, amik az ... okozta parazita hatást is figyelembe veszik.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>hűtés</t>
+          <t>kisjelű, lineáris, rbb' soros ellenállás</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -2365,23 +2396,25 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Bipoláris tranzisztorok esetén az egyenáramú áramerősítási tényező értéke közel ... .</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>1</v>
+          <t>A fotolitográfia során alkalmazott maszkillesztési módszerek közül a ... esetében fellépő diffrakció az alkalmazhatóság legnagyobb korlátozó tényezője.</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>proximity</t>
+        </is>
       </c>
       <c r="C145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Moore 1965-ben kiadott és még mindig fennálló jóslata szerint az egy lapkára integrálható ... száma ... havonta megduplázódik.</t>
+          <t>Diódák soros ellenállásának a csökkentése érdekében ... -t alkalmazunk.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>tranzisztorok, 14-18</t>
+          <t>epitaxiális réteg</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -2389,12 +2422,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Záróirányú előfeszítés esetén mindkét oldal ... -nak/-nek sodródása jellemző a másik oldal felé.</t>
+          <t>A JFET karakterisztika egyenlete ... összefüggést mutat.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>kisebbségi töltéshordozói</t>
+          <t>négyzetes</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -2402,12 +2435,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Fém és p adalékolású félvezető kontaktálása esetén a félvezetőben ... lép fel, a félvezető Fermi-szintje ... , a fémben ... alakul ki.</t>
+          <t>Az órajelfrekvencia folyamatos növekedése ... , mivel a ... korlátozó tényezővé vált.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>elektron többlet, megemelkedik, pozitív potenciál</t>
+          <t>leállt, disszipáció</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -2415,12 +2448,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Mikroelektronikai technológiában alkalmazott (fotolitográfiában) fény hullámhossza ... nagyságrendű (pontosan 193 nm).</t>
+          <t>... gyártástechnológiai eljárással vastagabb, de szennyezéseket tartalmazó oxidréteg hozható létre, főleg elektromos szigetels és maszkolás céljából.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>200 nm</t>
+          <t>Nedves oxidáció</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -2428,12 +2461,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Modern fotolitográfiában a 193 nm alatti felbontás ... alkalmazásával érhető el.</t>
+          <t>A MOS-FET tranzisztorok gate dielektrikum kialakításánál, nagy tisztaságú, szennyező atomoktól mentes, ... alakítanak ki ... gyártástechnológiai eljárással.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>argon fluorid lézer (ArF)/LELE/SADP/SAQP/immerziós litográfia/fázistoló maszkok (PSM)</t>
+          <t>vékony oxidot, száraz oxidáció</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -2441,12 +2474,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Tranziens szimuláció során a szimulátormotor (engine) adott ... meghatározza a hálózat minden pontjámak a ...</t>
+          <t>A ... értéke megmutatja, hogy mekkora energia értékkel hajlik el a sáv a félvezetőben. (MOS struktúrák esetén)</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>időlélésenként, feszültségét és áramát</t>
+          <t>felületi potenciál</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -2454,12 +2487,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Qsc a ... található töltések mennyisége.</t>
+          <t>A diffúzió félvezető technológiai műveletet általában két lépésben szoktuk végrehajtani: először a(z) ...  majd ezt követi a(z) ... lépése.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>kiürített rétegben</t>
+          <t>Elődiffúzió, Behajtás</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -2467,12 +2500,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A tisztatérben viselendő bunny suite (másnéven overál, cover-all) ...</t>
+          <t>A FEOL a ... rövidításe, a félvezető szelet gyártása során az összes technológiai lépést magába foglalja a(z) ... .</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>- fémháló szövi át, érintés védelem miatt. , - műszálas anyagból készül.</t>
+          <t>Front of endline (front-end-of-line?) , az első fémréteg kialakításáig</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -2480,12 +2513,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Mire használjuk a litográfiát?</t>
+          <t>A modern rendszerchip eszközök (pl.: Ryzen 7, core i7 processzorok) lapka mérete néhány ... nagyságú.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>mindkettőre (fotoreziszt felvitele és megmunkálása, ábrakialakítási módszer)</t>
+          <t>cm^2</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -2493,12 +2526,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CCD képérzékelők esetén ... alkalmazunk képérzékelő eszközként.</t>
+          <t>A .. a félvezetőgyártással foglalkozó üzemeket jelent.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MOS kapacitást</t>
+          <t>fab</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -2506,12 +2539,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Frank Wanless ismerte fel a MOS-FET eszközök magas nyitófeszültségét okozó fő szennyező anyagot, a ... .</t>
+          <t>Egymásután sorba kötött két CMOS inverter kapcsolással lehetővé válik egy bemeneti jel szintjeinek és jelalakjának a ... .</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>nátriumot</t>
+          <t>megváltoztatása</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -2519,12 +2552,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Donor adalékolású félvezető esetén a többlet elektron úgy pertubálja a sáv diagramot, hogy létrejön egy ... , ami a ... sáv ... van közel.</t>
+          <t>eszközök, gyártástechnológia</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>energianívó, vezetési, aljához</t>
+          <t>Vdd/táp</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -2532,25 +2565,23 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Az áramköri hordozók FR4 vagy FR5 alapanyaga ... erősítésű epoxi műgyanta laminátum.</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>üvegszál</t>
-        </is>
+          <t>Félvezető eszközök gyártása során akár ... darab maszkra is szükség lehet.</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>70</v>
       </c>
       <c r="C158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>PN átmenet esetén a kiürített rétegben a potenciálfüggvény ... jellegű, szemben a sikkondenzátorral, ahol ... jellegű.</t>
+          <t>A LED eszközök működése a ... jelenségen alapul.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>négyzetes, lineáris</t>
+          <t>rekombináció</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -2558,12 +2589,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A .. a félvezetőgyártással foglalkozó üzemeket jelent.</t>
+          <t>Mikroelektronikai technológiában alkalmazott (fotolitográfiában) fény hullámhossza ... nagyságrendű (pontosan 193 nm).</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>fab</t>
+          <t>200 nm</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -2571,12 +2602,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Egykristályos szilícium szeletek oldalán található bevágás (ún. flat) alkalmazására azért van szükség, mert ...</t>
+          <t>Fém és p adalékolású félvezető kontaktálása esetén a félvezetőben ... lép fel, a félvezető Fermi-szintje ... , a fémben ... alakul ki.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>... ez mutatja meg, hogy milyen típusú a kristály adalékolása (p vagy n).   ... ez mutatja meg, hogy milyen a kristálytani orientáció.</t>
+          <t>elektron többlet, megemelkedik, pozitív potenciál</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -2584,12 +2615,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Akceptor adalékolású félvezető esetén létrejön egy plusz ... , ami a ... sáv ... van közel.</t>
+          <t>JFET eszközök esetén ... sokkal nagyobb, mint a bipoláris tranzisztoroknál.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>energia nívó,  vegyérték, tetejéhez</t>
+          <t>a bemeneti impedancia</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -2597,12 +2628,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A jelterjedési idő helyett CMOS inverterek jellemzésére a .................. használjuk.</t>
+          <t>A ring-oszcillátor frekvenciája az azt felépítő ... és ... függ.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>késleltetést</t>
+          <t>inverterek számától, kapukésleltetés</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -2610,12 +2641,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Egy LED energiakonverziós hatásfoka egyenlő a LED által ................ és a betáplált ................... hányadosával</t>
+          <t>A transzkonduktancia mértékegysége: ... .</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>optikai teljesítmény, villamos teljesítmény</t>
+          <t>Siemens</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -2623,12 +2654,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A növekményes MOS-FET eszközök ... eszközök és ... működésűek.</t>
+          <t>Deep-UV fotolitográfia esetén a fotómaszkokat ... hordozón alakítják ki ... mintázattal.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>unipoláris, normaly-off</t>
+          <t>üveg, króm</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -2636,12 +2667,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Napelemek működése a ... hatáson alapul.</t>
+          <t>Heterogén integráció során több, különböző technológián, akár különböző félvezető alapanyagból gyártott chipeket, ún.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>fényelektromos</t>
+          <t>Chiplet, vezető (?) (félvezetővel 0.9 pont) szilícium!</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -2649,12 +2680,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Az intel ... stratégiáját felváltotta a porcess-architecture-optimization modell.</t>
+          <t>Az azonos áramköri kapcsolástechnikával megalkotott logikai kapuáramkörök alkotnak egy-egy ... -ot.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>tick-tock</t>
+          <t>logikai áramköri család</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -2662,12 +2693,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A spektrális válaszfüggvény megmutatja a ... és az adott hullámhosszúságú fény teljesítményének hányadosát egységnyi felületen.</t>
+          <t>Homogén bázisadalékolású bipoláris tranzisztor esetén a kisebbségi töltéshordozó eloszlás ... , mivel a ... minden pontban állandó kell, hogy legyen.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>generált fotoáram</t>
+          <t>lineáris, gradiens</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -2675,12 +2706,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Vörös- és infratartományú fénysugárzásnak ... az energiája, a(z) ... -ben abszorbeálódik.</t>
+          <t>A Schokley-Read-Hall rekombináció esetén a vegyértéksáv és a vezetési sáv között "áthaladó" elektron a ... található lokalizált állapotokkal (ezek az ún. ... ) kerül kölcsönhatásba.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>kisebb, szelet belsejében</t>
+          <t>tiltott sávban, mély-nívók(kal)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -2688,12 +2719,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A MOS tranzisztor áramának a hőmérsékletfüggése a ... -nek és a ... -nak hőmérsékletfüggéséből származik</t>
+          <t>PN átmenet nyitóirányú előfeszítése esetén a p oldalra átjutott elektronokat - a p oldalon - a ... mozgatja a kontaktus felé.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>küszöbfeszültség, töltéshordozók mozgékonyságá</t>
+          <t>diffúziós áram</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -2701,12 +2732,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Napelemek működése a ....................... hatáson alapul</t>
+          <t>Tranziens szimuláció során a szimulátormotor (engine) adott ... meghatározza a hálózat minden pontjámak a ...</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>fényelektromos</t>
+          <t>időlélésenként, feszültségét és áramát</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -2714,12 +2745,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Az első ... szabadalmát Lillienfield nyújtotta be 1925-ben.</t>
+          <t>Egy egyszerű földelt source-ú erősítő alapkapcsolás erősítésének meghatározására ... szimulációt érdemes futtatni.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>FET</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -2727,12 +2758,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Vizsgálataink során a Bohr atom-modellből indulunk ki: az elektronok ... energia szinteken ún. héjakon helyezkednek el, és az ... héjak vannak betöltve.</t>
+          <t>Nagy tápfeszültség alkalmazása esetén a CMOS inverter átkapcsolásakor fellép olyan állapot, amikor mind a két tranzisztor ... állapotban van.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>diszkrét, alacsonyabb</t>
+          <t>vezetési</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -2740,12 +2771,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A DRC a PDK része és a ... -ra tervezés szabályait tartalmazza.</t>
+          <t>MOS-FET tranzisztorok esetén a csatorna elzáródás bekövetkezte után, az elzáródott tartományban a töltéstranszport ... révén valósul meg.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>gyártás</t>
+          <t>drift áram</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -2753,12 +2784,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A fotolitográfia során alkalmazott maszkillesztési módszerek közül a ... esetében fellépő diffrakció az alkalmazhatóság legnagyobb korlátozó tényezője.</t>
+          <t>A sávelhajlás következtében változik a(z) ... és a ... távolsága, ami a töltéshordozó ... van közvetlen kapcsolatban.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>proximity</t>
+          <t>intrinsic, Fermi-szint, koncentrációval</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -2766,12 +2797,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A többátmenetes napelem struktúrákban a megvilágított oldal felől a napelem struktúra belseje felé haladva egyre ... anyagokat alkalmazunk.</t>
+          <t>Többátmenetes napelem struktúrák esetén különböző ... alkalmazunk, hogy a spektrum minél ... tartományában történhessen foton-gerjesztés.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>csökkenő tiltott sáv szélességű</t>
+          <t>tiltott-sávszélességű anyagokat, szélesebb</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -2779,12 +2810,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>JFET eszközök működése során feltétlen el kell kerülni a ... "működési tartományt".</t>
+          <t>Záróirányú előfeszítés esetén a PN átmenet ... viselkedik a kisebbségi töltéshordozókra.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>letörési</t>
+          <t>nyelőként</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -2792,12 +2823,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A Zener letörés az ún. ... fizika jelenségen alapul.</t>
+          <t>Az oszcillátor kimenő frekvenciájának meghatározására ... érdemes futtatni</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>alagúteffektus</t>
+          <t>tranziens szimulációt</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -2805,12 +2836,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Szobahőmérséklet felett, fokozatosan növekvő hőmérséklet esetén, a (hőmérsékletfüggő) mozgékonyság változás hatására a CMOS inverter késleltetése ... .</t>
+          <t>Az integrált áramkör gyártásához szükséges maszkok tervrajzát ... -nak nevezzük.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>nő</t>
+          <t>layout</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -2818,12 +2849,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>FET eszközök lineáris (trióda) tartományban ... -ként viselkedik.</t>
+          <t>Egy CMOS technológián, CMOS kapcsolástechnikával megvalósított logikai kapu n-csatornás MOS tranzisztorainak bulk-ját a ... -ra/-re kell kapcsolni.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>feszültségvezérelt ellenállás</t>
+          <t>föld/gnd</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -2831,12 +2862,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>PN átmenet esetén a diffúziós árammal szemben fellépő sodródási áram kialakulásához szükséges térerősséget ... hozza létre.</t>
+          <t>A tiszta levegő áramlása minden esetben ... történik, a külvilág és a különböző tisztaságú térrészek között kis mértékű túlnyomás uralkodik.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>tértöltés réteg</t>
+          <t>fentről lefelé</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -2844,12 +2875,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A P és N adalékolású félvezető darabok „összeérintésével” mindkét oldal ... áramolnak a túloldal felé, amíg a ... ki nem egyenlítődnek.</t>
+          <t>A szilícium szobahőmérsékleten ... hővezető képességű mint a réz.</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>többségi töltéshordozói, a Fermi-szint</t>
+          <t>sokkal rosszabb</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -2857,12 +2888,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A félvezető gyártósorokon kialakított tiszta térben ... áramló ... áramlási jellegű légáram kerül kialakításra.</t>
+          <t>Frank Wanless ismerte fel a MOS-FET eszközök magas nyitófeszültségét okozó fő szennyező anyagot, a ... .</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>fentről-lefelé, lamináris</t>
+          <t>nátriumot</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -2870,12 +2901,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A Poisson egyenlet kapcsolatot teremt a ... és ... között.</t>
+          <t>A külvilággal való kapcsolat kialakításában a ... áramkörök játszanak szerepet, amik lényegében egy kellően nagy (100um x 100um) ... felületek.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Térerősség, potenciál különbség</t>
+          <t>pad, réz</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -2883,12 +2914,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A réz vezetékezés kialakítása a ... technológiával válik lehetővé.</t>
+          <t>Vizsgálataink során a Bohr atom-modellből indulunk ki: az elektronok ... energia szinteken ún. héjakon helyezkednek el, és az ... héjak vannak betöltve.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>dual damascene</t>
+          <t>diszkrét, alacsonyabb</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -2896,26 +2927,26 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
+          <t>A Poisson egyenlet kapcsolatot teremt a ... és ... között.</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Térerősség, potenciál különbség</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
           <t>Az áramköri kapcsolás megalkotásához a rendelkezésre álló ..............-et az
 alkalmazott mikroelektronikai ........................... határozza meg.</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>eszközök, gyártástechnológia</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>A litográfiához alkalmazott fény hullámhossza a BME-VIK EET Félvezetőtechnikai laboratóriumában ... .</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>436 nm</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -2923,12 +2954,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>PN átmenet esetén a generáció a ... -ban/-ben jelentősebb, mint a normál p, vagy n adalékolású rétegben!</t>
+          <t>A sávdiagrammon a vegyérték és a vezetési sáv között a ... található.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>kiürített réteg</t>
+          <t>tiltott sáv</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -2936,12 +2967,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A FEOL a ... rövidításe, a félvezető szelet gyártása során az összes technológiai lépést magába foglalja a(z) ... .</t>
+          <t>A rövid hullámhosszúságú fénysugárzás ............................., a(z) ......................... abszorbeálódik.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Front of endline (front-end-of-line?) , az első fémréteg kialakításáig</t>
+          <t>nagy energiájú,szelet felületének közelében</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -2949,12 +2980,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A fill factor megmutatja, hogy a pixelfelület hány százaléka ... felület.</t>
+          <t>A félvezető chip felületén különböző vastagságú területek eltérő színét az ... jelenség okozza.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>hatásos</t>
+          <t>interferencia</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -2962,12 +2993,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A JFET tranzisztor drain-árama telítéses tartományban a ... feszültséggel ... kapcsolatban áll.</t>
+          <t>A DRC a PDK része és a ... -ra tervezés szabályait tartalmazza.</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Ugs, négyzetes</t>
+          <t>gyártás</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -2975,12 +3006,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>JFET eszközök esetén a ... működési tartományban az Id áram nem változik az ... feszültség változásával.</t>
+          <t>Az erős inverziót a ... definiáljuk.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>telítéses, Uds</t>
+          <t>Fermi-potenciál kétszeresénél</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -2988,12 +3019,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Flat-Band állapot eléréséhez a Gate elektródára akkora feszültséget kell kapcsolni, mint amekkora a gate anyaga és a félvezető ... a különbsége.</t>
+          <t>A kiürítéses MOS-FET tranzisztor felfogható úgy, mint egy ... növekményes MOS-FET tranzisztor.</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>kilépési munkáinak</t>
+          <t>eltolt küszöbfeszültségű</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -3001,12 +3032,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Szilícium félvezetőben a töltéshordozók mozgékonysága növekvő hőmérséklettel ... . </t>
+          <t>Flat-Band állapot eléréséhez a Gate elektródára akkora feszültséget kell kapcsolni, mint amekkora a gate anyaga és a félvezető ... a különbsége.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>csökken</t>
+          <t>kilépési munkáinak</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -3014,12 +3045,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ISOCELL technológiával a képérzékelő pixelek közötti ... csökkentjük.</t>
+          <t>PN átmenet esetén a kiürített réteg töltéshordozói ... -ra nem képesek, a ... létrehozásában van szerepük.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>áthallást</t>
+          <t>elmozdulás, diffúziós potenciál</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -3027,12 +3058,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>JFET eszközöknél (a MOS-FET eszközöktől eltérően) nem jellemző a ... zaj.</t>
+          <t>A P és N adalékolású félvezető darabok „összeérintésével” mindkét oldal ... áramolnak a túloldal felé, amíg a ... ki nem egyenlítődnek.</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>villódzási</t>
+          <t>többségi töltéshordozói, a Fermi-szint</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -3040,12 +3071,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A CMOS képérzékelő eszközök működése a panelekben található fotodióda ... térrészében lezajló ... alapul.</t>
+          <t>A hőmérséklet növelésével a MOS tranzisztor küszöbfeszültsége ... .</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>kiürített, generáción</t>
+          <t>csökken</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -3053,12 +3084,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A diffúzió félvezető technológiai műveletet általában két lépésben szoktuk végrehajtani: először a(z) ...  majd ezt követi a(z) ... lépése.</t>
+          <t>Napelemek működése a ... hatáson alapul.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Elődiffúzió, Behajtás</t>
+          <t>fényelektromos</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -3066,12 +3097,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Az intrinsic félvezetőkben a ... a sávközépnél található.</t>
+          <t>Az első híres személyi számítógépekben elérhető processzorok (pl.: 4004, 8080) ... technológián készült.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Fermi-szint</t>
+          <t>NMOS</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -3079,13 +3110,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Az azonos áramköri kapcsolástechnikával megalkotott logikai kapuáramkörök 
-alkotnak egy-egy ..................... -ot.</t>
+          <t>A  tisztatérben található kályhákkal ún. magas hőmérsékletű folyamatokat is végzünk. Ilyen folyamatok a ... . (2 technológiai folyamat)</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>logikai áramköri család</t>
+          <t>rétegnövesztés/oxidnövesztés, diffúzió</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -3093,12 +3123,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A rövid hullámhosszúságú fénysugárzás ... , a(z) ... abszorbeálódik.</t>
+          <t>A földelt bázisú alapkapcsolás, normál aktív üzemmódú működése során a BE átmenet ... , a CB átmenet ... irányban van előfeszítve.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>nagy energiájú, szelet felületének közelében</t>
+          <t>nyitó, záró</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -3106,12 +3136,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Nyitóirányú előfeszítés esetén mindkét oldal ... injektálódnak a másik oldal felé.</t>
+          <t>SCL kapcsolástechnikval ___ kapcsolásokat tudunk realizálni CMOS gyártástechnológián</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>többségi töltéshordozói</t>
+          <t>nagysebességű</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -3119,12 +3149,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A rövid hullámhosszúságú fénysugárzás ............................., a(z) ......................... abszorbeálódik.</t>
+          <t>Dennard törvénye az ................ alapelveit fekteti le.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>nagy energiájú,szelet felületének közelében</t>
+          <t>arányos méretcsökkenés</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -3132,12 +3162,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>JFET eszközöknél az U0 elzáródási feszültségérték a csatorna ... -tól és a csatorna ... -tól függ.</t>
+          <t>Mire használjuk a litográfiát?</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>adalékolás, vastagság</t>
+          <t>mindkettőre (fotoreziszt felvitele és megmunkálása, ábrakialakítási módszer)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -3145,12 +3175,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Egyes jóslatok szerint a 7 nm csíkszélességben a sötét szilícium (dark silicone) területe meghaladhatja akár a(s) ... %-ot.</t>
+          <t>Többségi töltéshordozó sűrűség ... a hőmérséklettől.</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>50-80</t>
+          <t>független</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -3158,12 +3188,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A Fill faktor (FF) megmutatja a maximális leadható ... viszonyát az adott megvilágításhoz tartozó ... és ... szorzatához képest (elméleti maximum).</t>
+          <t>Gm</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>teljesítmény, üresjárási feszültség, rövidzárási áram</t>
+          <t>tranzisztor vezető képessége</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -3171,12 +3201,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A projektorokban található DMD mikrorendszer rövidítés a .............. jelenti.</t>
+          <t>Az Ebers-Moll egyenletek ... reprezentáló modell, amely ... helyesen írja le a bipoláris tranzisztor működését.</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Digitális mikrotükör eszköz</t>
+          <t>nagyjelű nemlineáris működést, minden üzemmódban</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -3184,12 +3214,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Az egységnyi felületre számított gate kapacitás növekedésével a küszöbfeszültség értéke ... .</t>
+          <t>Egy félvezetőben csak akkor történhet foton-gerjesztés, ha a beérkező foton energiája ... , mint a ... .</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>csökken</t>
+          <t>nagyobb, tiltott sáv szélessége</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -3197,12 +3227,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Az órajelfrekvencia folyamatos növekedése ... , mivel a ... korlátozó tényezővé vált.</t>
+          <t>A litográfiához alkalmazott fény hullámhossza a BME-VIK EET Félvezetőtechnikai laboratóriumában ... .</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>leállt, disszipáció</t>
+          <t>436 nm</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -3210,12 +3240,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A sávelhajlás következtében változik a(z) ... és a ... távolsága, ami a töltéshordozó ... van közvetlen kapcsolatban.</t>
+          <t>Az egyedülálló atom energiaszintjei a kristályokban szinte ... -ká szélesednek.</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>intrinsic, Fermi-szint, koncentrációval</t>
+          <t>sávokká</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -3223,12 +3253,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>JFET eszközök esetén ... sokkal nagyobb, mint a bipoláris tranzisztoroknál.</t>
+          <t>Az azonos hőmérsékletű pontokat összekötő vonalak seregét ... -nak/-nek nevezzük.</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>a bemeneti impedancia</t>
+          <t>izoterma</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -3236,12 +3266,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A ............. gate technológia esetén a poly-szilícium gate elektródát pl Ni anyaggak ad.</t>
+          <t>Fésűs mikrostruktúra előnye a síkkondenzátor kialakításához képest, hogy a felületegységre vetített kapacitás értéke ...................</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>szilicid</t>
+          <t>nagyobb</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -3249,12 +3279,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Parabolikus sávközelítás esetén a töltéshordozók ... számolunk.</t>
+          <t>Az adalékprofil jellege a(z) ... -tól/-től függ.</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>effektív tömegével</t>
+          <t>technológia</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -3262,12 +3292,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A záróirányú feléledési jelenség miatt, ... történő gyors átkapcsolás esetén a dióda még véges ideig vezet, köszönhetően a ... .</t>
+          <t>CCD és CMOS képérzékelők egyaránt ... erősítő alapkapcsolást alkalmazunk.</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>nyitó tartományból a záró tartományba, diffúziós kapacitásnak</t>
+          <t>földelt draines</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -3275,12 +3305,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Homogén bázisadalékolású tranzisztorok esetén a (kisebbségi) töltéshordozókat a ... mozgatja az EB és BC átmenet között.</t>
+          <t>Inhomogén bázisadalékolású bipoláris tranzisztor esetén a kisebbségi töltéshordozó eloszlás a bázisban .............., mivel ............... mellett, minden keresztmetszeten állandó áram folyik.</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>diffúziós áram</t>
+          <t>konstans, állandó térerősség</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -3288,12 +3318,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>FD-SOI esetén teljesen ... a gate alatti ... nanométer vastagságú ... .</t>
+          <t>Akkumuláció során a ... halmozódnak fel a félvezető felületén a Gate elektróda alatt.</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>kiürített, 5-20, szilícium/Si</t>
+          <t>többségi töltések</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -3301,12 +3331,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Az első inverziót a ... definiáljuk.</t>
+          <t>A hőátadási tényező mértékegysége:</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Fermi-potenciál kétszeresénél</t>
+          <t>W/(m*K)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -3314,12 +3344,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A ring-oszcillátor frekvenciája az azt felépítő ... és ... függ.</t>
+          <t>JFET eszközöknél a maximális Id áramot (Ugs = 0 mellett) ... jelöljük és ... nevezzük.</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>inverterek számától, kapukésleltetés</t>
+          <t>I0, áramállandó</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -3327,7 +3357,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Növekvő hőmérséklet esetén, a (hőmérsékletfüggő) küszöbfeszültség (VTH) változásának hatására a CMOS inverter késleltetése ... .</t>
+          <t>A hőmérséklet növekedésével a MOS tranzisztor küszöbfeszültsége ...</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3340,12 +3370,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>JFET eszközökben a PN átmenetekre kapcsolt ... feszültséggel változtatható a kiürített réteg ... így a csatorna effektív ... .</t>
+          <t xml:space="preserve">Szilícium félvezetőben a töltéshordozók mozgékonysága növekvő hőmérséklettel ... . </t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>záró irányú, szélessége, vastagsága</t>
+          <t>csökken</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -3353,12 +3383,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A diffúziós kapacitás káros, lassítja a dióda működését. ... dióda kialakítással és a kisebbségi töltéshordozó élettartam ... lehet csökkenteni.</t>
+          <t>Az inverziós tartományban a bipoláris tranzisztor áramerősítési tényezője maximum ... értéket érheti el.</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Keskenybázisú, csökkentésével</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -3366,12 +3396,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Az oszcillátor kimenő frekvenciájának meghatározására ... érdemes futtatni</t>
+          <t>Számos technológiai lépésnél (pl. diffúzió, oxidáció) a ... csoportosan ún. partiban kezelik.</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>tranziens szimulációt</t>
+          <t>félvezető szeleteket</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -3379,25 +3409,23 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Széles bázisú PN átmenet esetén a diffúziós töltések mennyisége a(z) ... -tól és a kisebbségi töltéshordozók ... -tól függ.</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>diffúziós áram, élettartam</t>
-        </is>
+          <t>Bipoláris tranzisztorok esetén az egyenáramú áramerősítási tényező értéke közel ... .</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
       </c>
       <c r="C223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Indirekt rekombináció nem radiatív, de mindig ... jár.</t>
+          <t>Intrinsic félvezetőben az elektronok koncentrációja a ... valamint a ... és a ... távolságától függ.</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>hődisszipációval</t>
+          <t>hőmérséklettől, vezetési sáv alja, intrinsic Fermi-szint</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -3405,12 +3433,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Egy képzeletbeli differenciál erősító bemeneti tranzisztorait elhelyezéskor ... és ... szempontokat kell figyelembe vennünk, hogy elkerüljük a munkapontbeli ... -kat/-ket.</t>
+          <t>Kiürülés során nem lesznek ... a Gate alatt a félvezető felületén.</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>hőtani, mechanikai, különbség</t>
+          <t>lyukak</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -3418,12 +3446,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A töltés-pumpálás fogyasztás összetevő értéke a ... és ... szorzatával arányos.</t>
+          <t>Széles bázisú PN átmenet esetén a diffúziós töltések mennyisége a(z) ... -tól és a kisebbségi töltéshordozók ... -tól függ.</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>tápfeszültség négyzetével, működési frekvencia</t>
+          <t>diffúziós áram, élettartam</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -3431,12 +3459,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A JFET tranzisztor karakterisztika egyenlete ... összefüggést mutat.</t>
+          <t>PN átmenet esetén a kiürített réteg mindig a ... adalékolt oldalon szélesebb.</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>négyzetes</t>
+          <t>gyengébben</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -3444,12 +3472,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Az egyedülálló atom energiaszintjei a kristályokban szinte ... -ká szélesednek.</t>
+          <t>Qss a félvezető és az oxid határfelületén található ... megülő töltések.</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>sávokká</t>
+          <t>elkötetlen vegyérték állapotokon</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -3457,12 +3485,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>CD értékének csökkentésével a subthreshold swing értéke ..........., így a küszöbalatti áram értéke ...............</t>
+          <t>Donor adalékolású félvezető esetén a többlet elektron úgy pertubálja a sáv diagramot, hogy létrejön egy ... , ami a ... sáv ... van közel.</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>csökken, csökken</t>
+          <t>energianívó, vezetési, aljához</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -3470,12 +3498,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A földelt bázisú alapkapcsolás, normál aktív üzemmódú működése során a BE átmenet ... , a CB átmenet ... irányban van előfeszítve.</t>
+          <t>Akceptor adalékolású félvezető esetén létrejön egy plusz ... , ami a ... sáv ... van közel.</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>nyitó, záró</t>
+          <t>energia nívó,  vegyérték, tetejéhez</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -3483,12 +3511,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A földelt source-ú alapkapcsolás esetén a feszültségerősítés növelhető, ha növeljük a ... vagy a ... értékét.</t>
+          <t>A kollektorköri ellenállás csökkentése céljából az integrált áramköri bipoláris tranzisztor struktúrák esetén ... kialakítását alkalmazzák.</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>transzkonduktancia, terhelő ellenállás</t>
+          <t>eltemetett réteg</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -3496,23 +3524,25 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Térvezérlésű tranzisztorok vezérlőteljesítménye közel ... W.</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>0</v>
+          <t>A projection/vetítős maszkillesztési módszer legnagyobb előnye, hogy a maszk mérete ... mérete.</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>nagyobb lehet mint a chip</t>
+        </is>
       </c>
       <c r="C232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A Fermi-Dirac statisztikában az elektronokat ... .</t>
+          <t>A JFET tranzisztor drain-árama telítéses tartományban a ... feszültséggel ... kapcsolatban áll.</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>nem lehet megkülönböztetni</t>
+          <t>Ugs, négyzetes</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -3520,12 +3550,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Félvezető anyagra adott pozitív feszültség hatására a sávábrán, a megengedett energia szintek/sávok ... , azaz a sáv ... .</t>
+          <t>Transzporthatásfok értéke a bázis ... és a ... hányadosának négyzetétől függ.</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>potenciális energiája csökken, lefelé hajlik</t>
+          <t>szélesség, diffúziós hossz</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -3533,12 +3563,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A transzkonduktancia mértékegysége: ... .</t>
+          <t>Passzív terhelésű nMOS inverter kapcsolás fő előnye, hogy ............. megvalósítható.</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Siemens</t>
+          <t>kevés tranzisztorral</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -3546,12 +3576,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A félvezető szeleteket ... -val/vel darabolják fel.</t>
+          <t>Direkt sávú félvezetőben a sávszerkezetén a vegyértéksáv teteje és a vezetési sáv alja ... értéknél található.</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>gyémánttárcsás vágóeszköz</t>
+          <t>azonos impulzus</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -3559,12 +3589,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>PN átmenetnél a kiürített réteg szélessége a záróirányú feszültség növelésével ... .</t>
+          <t>Usb feszültség növelésével Vth küszöbfeszültség értéke ... .</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>nő</t>
+          <t>növekszik</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -3572,12 +3602,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Direkt rekombináció ... járhat.</t>
+          <t>A félvezető belsejében kialakított erős adalékolás (pl.: HALO) kialakítása csak ... -val/-vel lehetséges.</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>fény kibocsátással</t>
+          <t>ion-implantáció</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -3585,12 +3615,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Egy CMOS technológián, CMOS kapcsolástechnikával megvalósított logikai kapu n-csatornás MOS tranzisztorainak bulk-ját a ... -ra/-re kell kapcsolni.</t>
+          <t>A záróirányú feléledési jelenség miatt, ... történő gyors átkapcsolás esetén a dióda még véges ideig vezet, köszönhetően a ... .</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>föld/gnd</t>
+          <t>nyitó tartományból a záró tartományba, diffúziós kapacitásnak</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -3598,12 +3628,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A FIms az ... .</t>
+          <t>JFET eszközökben a PN átmenetekre kapcsolt ... feszültséggel változtatható a kiürített réteg ... így a csatorna effektív ... .</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>érintkezési potenciálkülönbség</t>
+          <t>záró irányú, szélessége, vastagsága</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -3611,12 +3641,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Az integrált áramkörök felületén gyakran különböző színű részeket lehet megkülönböztetni (főleg régebbi IC-k esetén, pl.: ua741). Ez a különböző vastagságú ... réteggel fedett területeken, a(z) interferencia jelenségnek köszönhető.</t>
+          <t>Az adalékprofil megmutatja az ... -ét/-át a ... függvényében.</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>oxid</t>
+          <t>adaléksűrűség, mélység</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -3624,12 +3654,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A félvezető belsejében kialakított erős adalékolás (pl.: HALO) kialakítása csak ... -val/-vel lehetséges.</t>
+          <t>A földelt source-ú alapkapcsolás esetén a feszültségerősítés növelhető, ha növeljük a ... vagy a ... értékét.</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ion-implantáció</t>
+          <t>transzkonduktancia, terhelő ellenállás</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -3637,12 +3667,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A modern rendszerchip eszközök (pl.: Ryzen 7, core i7 processzorok) lapka mérete néhány ... nagyságú.</t>
+          <t>MOS-FET eszközök esetén a fém gate-s struktúrát a ... gate anyagú struktúra váltotta fel, mert így a gyártás során megvalósulhat az ... és kisebb lehet a ... .</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>cm^2</t>
+          <t>poli-Si, önillesztés, küszöbfeszültség</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -3650,12 +3680,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Metallurgiai átmenetnél a donor és akceptor adalékkoncentráció ... .</t>
+          <t>Félvezető sávszerkezete az ... függvényében ábrázolja az elektronok ... .</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>kiegyenlítődik/megegyezik</t>
+          <t>impulzus, kinetikus energiáját</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -3663,12 +3693,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Kémai kötések kialakításában a ... elektronjai vesznek részt. A kiürített térrészben történő generáció során keletkeznek.</t>
+          <t>Az intel ... stratégiáját felváltotta a porcess-architecture-optimization modell.</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>vegyértéksáv</t>
+          <t>tick-tock</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -3676,12 +3706,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A projection/vetítős maszkillesztési módszer legnagyobb előnye, hogy a maszk mérete ... mérete.</t>
+          <t>Adalékolt szilícium félvezetőben a töltéshordozó sűrűség közvetlen összefüggésben van a ... és a ... távolságával.</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>nagyobb lehet mint a chip</t>
+          <t>Fermi-szint, intrinsic Fermi-szint</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -3689,12 +3719,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A szeleteket számos technológiai lépésnél (pl.: diffúzió, oxidáció) csoportosan kezelik, az így kialakított csoport szakterminológiai elnevezése ... .</t>
+          <t>Modern MOS-FET eszközök esetén a forró elektron jelenség megelőzésére ... alakítanak ki</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Batch/parti</t>
+          <t>LDD-t || Lightly Doped Drain-t</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -3702,12 +3732,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A diffúziós hossz megmutatja, hogy milyen ... -ig hatolnak be a ...  töltéshordozók, mielőtt rekombinálódnak.</t>
+          <t>A mikroelektronika fejlődési trendjeit, jóslatait tartalmazó összefoglalót ... -nek nevezzük.</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>átlagos mélységig, kisebbségi</t>
+          <t>roadmap</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -3715,12 +3745,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Az azonos hőmérsékletű pontokat összekötő vonalak seregét ... -nak/-nek nevezzük.</t>
+          <t>Moore 1965-ben kiadott és még mindig fennálló jóslata szerint az egy lapkára integrálható ... száma ... havonta megduplázódik.</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>izoterma</t>
+          <t>tranzisztorok, 14-18</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -3728,12 +3758,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Gm</t>
+          <t>A szilícium szelet felületére az adalékolás (diffúzió, ionimplantáció) maszkolása céljából ... réteget növesztünk.</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>tranzisztor vezető képessége</t>
+          <t>SiO2</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -3741,12 +3771,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Számos technológiai lépésnél (pl. diffúzió, oxidáció) a ... csoportosan ún. partiban kezelik.</t>
+          <t>Kényszerített nyitóirányú áram mellett a PN átmenet nyitófeszültsége nagyon jó ... .</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>félvezető szeleteket</t>
+          <t>hőmérséklet mérő</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -3754,12 +3784,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>PN átmenet esetén a kiürített rétegben a térerősség eloszlás függvénye ... jellegű, szemben a síkkondenzátor struktúrával, ahol ... jellegű.</t>
+          <t>Napelemek működése a ....................... hatáson alapul</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>lineáris, konstans</t>
+          <t>fényelektromos</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -3767,12 +3797,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Fém-fém kontaktus esetén a kontaktpotenciált a különböző anyagú fémek eltérő ... -je/-ja okozza.</t>
+          <t>Egykristályos szilícium szeletek oldalán található bevágás (ún. flat) alkalmazására azért van szükség, mert ...</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>kilépési munka</t>
+          <t>... ez mutatja meg, hogy milyen típusú a kristály adalékolása (p vagy n).   ... ez mutatja meg, hogy milyen a kristálytani orientáció.</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -3780,12 +3810,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A bulk adaléksűrűség növelésével ... a Vth küszöbfeszültség értéke.</t>
+          <t>Az egyelőre megoldatlan, a további fejlődést gátló problémákat a roadmap-ekben egységesen ... -nak nevezzük.</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>négyzetgyökösen növekszik</t>
+          <t>the red brick wall</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -3793,12 +3823,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Félvezető eszközök gyártása során több tucat maszkot alkalmaznak. Az egyik legnagyobb problémát a(z) ... jelenti.</t>
+          <t>Egy képzeletbeli differenciál erősító bemeneti tranzisztorait elhelyezéskor ... és ... szempontokat kell figyelembe vennünk, hogy elkerüljük a munkapontbeli ... -kat/-ket.</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>maszkillesztés</t>
+          <t>hőtani, mechanikai, különbség</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -3806,12 +3836,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Fém és félvezető anyag kontaktálásakor a félvezetőben ... következik be.</t>
+          <t>A szeleteket számos technológiai lépésnél (pl.: diffúzió, oxidáció) csoportosan kezelik, az így kialakított csoport szakterminológiai elnevezése ... .</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>sávelhajlás</t>
+          <t>Batch/parti</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -3819,12 +3849,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A külvilággal való kapcsolat kialakításában a ... áramkörök játszanak szerepet, amik lényegében egy kellően nagy (100um x 100um) ... felületek.</t>
+          <t>Egy differenciál erősítő tranzisztorait a lehető legkisebb hőmérsékletű izotermán érdemes elhelyezni, hogy minimalizáljuk a ... nagyságát.</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>pad, réz</t>
+          <t>zaj</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -3832,12 +3862,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 45 nm alatti csíkszélességű technológiákon a MOS-FET tranzisztorok fém gate elektródája a ___ beállításáért felelős rétegstruktúrából és alacsony ___ fém rétegből épül fel.</t>
+          <t>JFET eszközök transzkonduktancia értéke ... változik az Ugs feszültség függvényében.</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>kilépési, munka ellenállású</t>
+          <t>négyzetgyökösen</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -3845,25 +3875,23 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Modern MOS-FET eszközök esetén a forró elektron jelenség megelőzésére ... alakítanak ki</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>LDD-t || Lightly Doped Drain-t</t>
-        </is>
+          <t>Modern félvezető technológiák esetén a termék előállítása során a FEOL technológiai lépések száma akár ... is lehet.</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>150</v>
       </c>
       <c r="C259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A fotolitográfia során a helyiség megvilágítása ... színű fénnyel történik, mert a fotolakk/fotoreziszt érzékeny az ... fényre.</t>
+          <t>A bulk adaléksűrűség növelésével ... a Vth küszöbfeszültség értéke.</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>sárga, UV</t>
+          <t>négyzetgyökösen növekszik</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -3871,12 +3899,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A bipoláris tranzisztor működésének feltétele, hogy az egyik ... réteg nagyságrendekkel ... legyen, mint a ... réteg.</t>
+          <t>Nyitóirányú előfeszítés esetén mindkét oldal ... injektálódnak a másik oldal felé.</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>szélső, jobban adalékolt, középső</t>
+          <t>többségi töltéshordozói</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -3884,12 +3912,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Modern gyártástechnológiák jellemző MFS értéke.</t>
+          <t>Vörös- és infratartományú fénysugárzásnak ... az energiája, a(z) ... -ben abszorbeálódik.</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>7nm</t>
+          <t>kisebb, szelet belsejében</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -3897,12 +3925,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Záróirányú előfeszítés hatására a PN átmeneten ... a potenciálgát magassága, ... a térerősség a töltésrétegben, így a ... kerül túlsúlyba.</t>
+          <t>Az első inverziót a ... definiáljuk.</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>növekszik, növekszik, sodródási áram</t>
+          <t>Fermi-potenciál kétszeresénél</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -3923,12 +3951,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A ... egyenlet(ek)nek központi szerepük van a félvezető eszközök elméletében.</t>
+          <t>A JFET és a kiürítéses MOS-FET eszközök ... működésűek.</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>folytonossági</t>
+          <t>normally-on</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -3936,25 +3964,23 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Nagy tápfeszültség alkalmazása esetén a CMOS inverter átkapcsolásakor fellép olyan állapot, amikor mind a két tranzisztor ... állapotban van.</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>vezetési</t>
-        </is>
+          <t>Inhomogén bázisadalékolású bipoláris tranzisztoroknál a beépített tér nagysága körülbelül ... mV nagyságrendű.</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>120</v>
       </c>
       <c r="C266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Az Elektronikus Eszközök Tanszéke félvezető laboratóriumában ... technológia áll rendelkezésre.</t>
+          <t>A bipoláris tranzisztor működésének feltétele, hogy az egyik ... réteg nagyságrendekkel ... legyen, mint a ... réteg.</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>p-MOS</t>
+          <t>szélső, jobban adalékolt, középső</t>
         </is>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -3962,12 +3988,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Jelenleg a modern gyártástechnológiában alkalmazott szelet átmérő ... .</t>
+          <t>JFET eszközök unipoláris eszközök, ami azt jelenti, hogy a ... vesznek részt a vezetésben.</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>30 cm</t>
+          <t>többségi töltéshordozók</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -3975,12 +4001,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Mit jelent a 100-as tér fogalma?</t>
+          <t>A szeleteket számos technológiai lépésnél (pl.: diffúzió, oxidáció) csoportosan kezelik, az így kialakított csoport szakterminológiai elnevezése ... .</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>legfeljebb 100 db, 0,5um-esnél nagyobb részecske lehet egy köbláb levegőben</t>
+          <t>Batch/parti</t>
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -3988,12 +4014,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Az Uk komparálási feszültség értéke - CMOS inverter kapcsolás esetén - a tranzisztorok ... -nak/-nek arányától függ.</t>
+          <t>Fém és n adalékolású félvezető kontaktálása esetén a félvezetőben ... lép fel, a félvezető Fermi-szintje ... , a fémben ... alakul ki.</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>áramállandója</t>
+          <t>elektron hiány, lesüllyed, negatív potenciál</t>
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -4001,12 +4027,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Az adalékprofil jellege a(z) ... -tól/-től függ.</t>
+          <t>A MOS kapacitás struktúra esetén megismert felületi jelenségek: ... , ... , ... .</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>technológia</t>
+          <t>akkumuláció, kiürítés, inverzió</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -4014,12 +4040,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A szeleteket számos technológiai lépésnél (pl.: diffúzió, oxidáció) csoportosan kezelik, az így kialakított csoport szakterminológiai elnevezése ... .</t>
+          <t>Mit jelent a 100-as tér fogalma?</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Batch/parti</t>
+          <t>legfeljebb 100 db, 0,5um-esnél nagyobb részecske lehet egy köbláb levegőben</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -4027,12 +4053,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Modern félvezető technológiákon a planár tranzisztor kialakítását felváltotta a ... és a ... 3D tranzisztor konstrukciók.</t>
+          <t>Szobahőmérséklet felett, fokozatosan növekvő hőmérséklet esetén, a (hőmérsékletfüggő) mozgékonyság változás hatására a CMOS inverter késleltetése ... .</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>FinFET, GAA</t>
+          <t>nő</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -4040,12 +4066,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Kiürülés során nem lesznek ... a Gate alatt a félvezető felületén.</t>
+          <t>Közepes teljesítményű bipoláris tranzisztor esetén az emitter ún. ... kialakítású.</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>lyukak</t>
+          <t>fésűs</t>
         </is>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -4053,12 +4079,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Az elektrosztatika Gauss törvénye kapcsolatot teremt a ... és a ... között.</t>
+          <t>A MOS tranzisztor áramának a hőmérsékletfüggése a ... -nek és a ... -nak hőmérsékletfüggéséből származik</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>töltéssűrűsség, térerősség</t>
+          <t>küszöbfeszültség, töltéshordozók mozgékonyságá</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -4066,12 +4092,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A félvezető felületén látható elszíneződést a ... -ról/ről és az ... -ról/ről visszaverődő fényhullám interferenciája okozza. (ábrán alulról felfelé megnevezni)</t>
+          <t>Nagy térerősség esetén a sodródási sebesség (drift velocity) megközelíti a hőmozgés sebességét, így a további térerősség növelésével a sodródási áram ... .</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Si, SiO2 | Szilícium, Szilíciumdioxid</t>
+          <t>növekedése lelassul</t>
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -4079,12 +4105,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A szilícium szelet felületére az adalékolás (diffúzió, ionimplantáció) maszkolása céljából ... réteget növesztünk.</t>
+          <t>A Zener letörés az ún. ... fizika jelenségen alapul.</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>SiO2</t>
+          <t>alagúteffektus</t>
         </is>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -4092,12 +4118,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A metallurgiai átmenetnél a félvezető anyag úgy viselkedik, mintha ... lenne.</t>
+          <t>Az intrinsic félvezetőkben a ... a sávközépnél található.</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>intrinsic/adalékolatlan</t>
+          <t>Fermi-szint</t>
         </is>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -4105,12 +4131,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Napelem felületének struktúrálása és a felületére felvitt/kialakított ... együttes alkalmazása jelentősen csökkenti a reflexiót.</t>
+          <t>PN átmenet esetén a beépített potenciál értéke a két oldal ... függvénye.</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>antireflexiós réteg</t>
+          <t>adalékolásának</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -4118,12 +4144,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Az erős inverziót a ... definiáljuk.</t>
+          <t>A vegyérték és vezetési sáv között a ... található.</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Fermi-potenciál kétszeresénél</t>
+          <t>tiltott sáv</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -4131,12 +4157,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>FET eszközöket áramgenerátorok kialakítása esetén a(z) ... üzemmódban használunk, mert ekkor nagy a kimenő ... értéke.</t>
+          <t>A megfelelő ... kérdése egyre fontosabbá válik a 3D rendszer konstrukciók esetén, növekvő disszipáció sűrűség mellett.</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>telítéses, impedancia</t>
+          <t>hűtés</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -4144,12 +4170,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>PN átmenet esetén a kiürített réteg töltéshordozói ... -ra nem képesek, a ... létrehozásában van szerepük.</t>
+          <t>CMOS képérzékelők esetén ... -t alkalmazunk képérzékelő eszközként.</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>elmozdulás, diffúziós potenciál</t>
+          <t>fotodióda</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -4157,12 +4183,14 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Egy differenciál erősítő tranzisztorait a lehető legkisebb hőmérsékletű izotermán érdemes elhelyezni, hogy minimalizáljuk a ... nagyságát.</t>
+          <t>Flat-Band állapot eléréséhez a Gate elektródára akkora feszültséget kell
+kapcsolni, mint amekkora a gate anyaga és a félvezető .............. a
+különbsége.</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>zaj</t>
+          <t>kilépési munkáinak</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -4170,25 +4198,29 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Diódák soros ellenállásának a csökkentése érdekében ... -t alkalmazunk.</t>
+          <t>Inhomogén bázisadalékolású bipoláris tranzisztor esetén a kisebbségi töltéshordozókat főleg a ... fogja mozgatni a lezárt CB átmenet irányába.</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>epitaxiális réteg</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr"/>
+          <t>beépített térerősség/beépített potenciál</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>nem tudom</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Frank Wanlass 1963-ban alkotta meg az első ... logikai kapcsolást.</t>
+          <t>A PN átmenet diffúziós kapacitása a ... jellemző.</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>CMOS</t>
+          <t>nyitó tartományban</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -4196,12 +4228,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Intrinsic félvezetőben az elektronok koncentrációja a ... valamint a ... és a ... távolságától függ.</t>
+          <t>Modern félvezető technológiákon a planár tranzisztor kialakítását felváltotta a ... és a ... 3D tranzisztor konstrukciók.</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>hőmérséklettől, vezetési sáv alja, intrinsic Fermi-szint</t>
+          <t>FinFET, GAA</t>
         </is>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -4209,12 +4241,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>PN átmenet esetén a generációs áram tipikusan ... előfeszítés esetén jellemző.</t>
+          <t>A Fill faktor (FF) megmutatja a maximális leadható ... viszonyát az adott megvilágításhoz tartozó ... és ... szorzatához képest (elméleti maximum).</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>záró</t>
+          <t>teljesítmény, üresjárási feszültség, rövidzárási áram</t>
         </is>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -4222,12 +4254,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Közepes teljesítményű bipoláris tranzisztor esetén az emitter ún. ... kialakítású.</t>
+          <t>Napelem felületének struktúrálása és a felületére felvitt/kialakított ... együttes alkalmazása jelentősen csökkenti a reflexiót.</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>fésűs</t>
+          <t>antireflexiós réteg</t>
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -4235,12 +4267,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Akkumuláció során a ... halmozódnak fel a félvezető felületén a Gate elektróda alatt.</t>
+          <t>Egy CMOS technológián, CMOS kapcsolástechnikával megvalósított logikai kapu p-csatornás MOS tranzisztorainak bulk-ját a ... -ra/-re kell kapcsolni.</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>többségi töltések</t>
+          <t>táp/vdd</t>
         </is>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -4248,12 +4280,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Nagy tápfeszültség alkalmazása esetén a CMOS inverter átkapcsolásakor fellép olyan állapot, amikor mind a két tranzisztor ..............állapotban van.</t>
+          <t>A réz vezetékezés kialakítása a ... technológiával válik lehetővé.</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>vezetési</t>
+          <t>dual damascene</t>
         </is>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -4261,12 +4293,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>JFET eszközöknek alacsonyabb a ... értéke, mint a bipoláris tranzisztoroknak.</t>
+          <t>A PN átmenet tértöltési kapacitása a ... -ban/-ben domináns.</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>transzkonduktancia</t>
+          <t>záró tartomány</t>
         </is>
       </c>
       <c r="C291" t="inlineStr"/>
